--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -1,25 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4D9D64A577C15A4A54188D781E63C45BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CF8ECA-9F0C-4F58-9A54-A04598FEC106}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="RQ1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>eTour</t>
+  </si>
+  <si>
+    <t>iTrust</t>
+  </si>
+  <si>
+    <t>Albergate</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>Correct Matches</t>
+  </si>
+  <si>
+    <t>with_only_code</t>
+  </si>
+  <si>
+    <t>Wanted Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Total Given</t>
+  </si>
+  <si>
+    <t>% correct matches</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +119,248 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +371,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="G5:J9" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_only_code" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9096F76B-227C-4769-A426-FD98EEC0017F}" name="Tableau2" displayName="Tableau2" ref="B5:E6" totalsRowShown="0">
+  <autoFilter ref="B5:E6" xr:uid="{9096F76B-227C-4769-A426-FD98EEC0017F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A30D5633-D271-4AF1-B193-F0BA60A542FE}" name="  "/>
+    <tableColumn id="2" xr3:uid="{88800BA8-DB54-44BA-8CC5-B23337137D10}" name="eTour"/>
+    <tableColumn id="3" xr3:uid="{39990FC0-181A-4E65-B2AB-EA1C67BB4259}" name="iTrust"/>
+    <tableColumn id="4" xr3:uid="{16D7F4D2-F33E-45D7-A62C-E6FFF02ABC61}" name="Albergate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +661,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>308</v>
+      </c>
+      <c r="D6">
+        <v>418</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>143</v>
+      </c>
+      <c r="I7" s="8">
+        <v>163</v>
+      </c>
+      <c r="J7" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" cm="1">
+        <f t="array" ref="H8">H7/Tableau2[eTour]*100</f>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="I8" s="1" cm="1">
+        <f t="array" ref="I8">I7/Tableau2[iTrust]*100</f>
+        <v>38.995215311004785</v>
+      </c>
+      <c r="J8" s="3" cm="1">
+        <f t="array" ref="J8">J7/Tableau2[Albergate]*100</f>
+        <v>87.037037037037038</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>284</v>
+      </c>
+      <c r="I9" s="1">
+        <v>474</v>
+      </c>
+      <c r="J9" s="3">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marius.pingaud\OneDrive - BERGER-LEVRAULT\Bureau\Sorbonne\M2\Master thesis\Requirement Engineering\master_thesis_xp\pythonv2\results\response_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4D9D64A577C15A4A54188D781E63C45BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CF8ECA-9F0C-4F58-9A54-A04598FEC106}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8353B3-9F43-4778-A745-B492EDDF3FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>eTour</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>% correct matches</t>
+  </si>
+  <si>
+    <t>with_code_comment</t>
   </si>
 </sst>
 </file>
@@ -251,18 +254,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -339,6 +330,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -346,18 +346,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -374,13 +377,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="G5:J9" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_only_code" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_only_code" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -396,6 +399,19 @@
     <tableColumn id="4" xr3:uid="{16D7F4D2-F33E-45D7-A62C-E6FFF02ABC61}" name="Albergate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G12:J16" totalsRowShown="0">
+  <autoFilter ref="G12:J16" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -662,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:J9"/>
+  <dimension ref="B5:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,11 +793,85 @@
         <v>134</v>
       </c>
     </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>162</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">H14/Tableau2[eTour]*100</f>
+        <v>52.597402597402599</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">I14/Tableau2[iTrust]*100</f>
+        <v>0.71770334928229662</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">J14/Tableau2[Albergate]*100</f>
+        <v>35.185185185185183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>325</v>
+      </c>
+      <c r="I16">
+        <v>131</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marius.pingaud\OneDrive - BERGER-LEVRAULT\Bureau\Sorbonne\M2\Master thesis\Requirement Engineering\master_thesis_xp\pythonv2\results\response_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8353B3-9F43-4778-A745-B492EDDF3FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="6_{D18F53DD-BD7E-4EFC-B763-D1CA351000E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB7C680-0961-4067-B74B-E36367F77DEE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,30 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>eTour</t>
   </si>
@@ -69,36 +48,131 @@
     <t>Albergate</t>
   </si>
   <si>
-    <t>F1 score</t>
-  </si>
-  <si>
-    <t>Correct Matches</t>
-  </si>
-  <si>
-    <t>with_only_code</t>
-  </si>
-  <si>
     <t>Wanted Links</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Total Given</t>
-  </si>
-  <si>
-    <t>% correct matches</t>
-  </si>
-  <si>
     <t>with_code_comment</t>
+  </si>
+  <si>
+    <t>with_one_comment</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>0.5035</t>
+  </si>
+  <si>
+    <t>0.3436</t>
+  </si>
+  <si>
+    <t>0.3507</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>0.4643</t>
+  </si>
+  <si>
+    <t>0.3909</t>
+  </si>
+  <si>
+    <t>0.8704</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>0.4832</t>
+  </si>
+  <si>
+    <t>0.3659</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4985</t>
+  </si>
+  <si>
+    <t>0.0229</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.5259</t>
+  </si>
+  <si>
+    <t>0.0072</t>
+  </si>
+  <si>
+    <t>0.3519</t>
+  </si>
+  <si>
+    <t>0.5119</t>
+  </si>
+  <si>
+    <t>0.0107</t>
+  </si>
+  <si>
+    <t>0.3654</t>
+  </si>
+  <si>
+    <t>0.4366</t>
+  </si>
+  <si>
+    <t>0.3143</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.1006</t>
+  </si>
+  <si>
+    <t>0.3828</t>
+  </si>
+  <si>
+    <t>0.7222</t>
+  </si>
+  <si>
+    <t>0.1628</t>
+  </si>
+  <si>
+    <t>0.3456</t>
+  </si>
+  <si>
+    <t>with_code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,139 +196,116 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -265,12 +316,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -283,12 +333,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -301,12 +350,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -317,8 +365,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -349,18 +395,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -377,13 +411,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="G5:J9" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="G5:J11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_only_code" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -403,15 +437,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G12:J16" totalsRowShown="0">
-  <autoFilter ref="G12:J16" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -678,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:J16"/>
+  <dimension ref="B5:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,15 +737,15 @@
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -709,22 +756,26 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>308</v>
@@ -736,142 +787,375 @@
         <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>143</v>
+      </c>
+      <c r="I6" s="2">
+        <v>163</v>
+      </c>
+      <c r="J6" s="2">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>284</v>
+      </c>
+      <c r="I7" s="2">
+        <v>474</v>
+      </c>
+      <c r="J7" s="2">
+        <v>134</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>308</v>
+      </c>
+      <c r="I8" s="2">
+        <v>418</v>
+      </c>
+      <c r="J8" s="2">
+        <v>54</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>162</v>
+      </c>
+      <c r="I14" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J14" s="2">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>325</v>
+      </c>
+      <c r="I15" s="2">
+        <v>131</v>
+      </c>
+      <c r="J15" s="2">
+        <v>50</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>308</v>
+      </c>
+      <c r="I16" s="2">
+        <v>418</v>
+      </c>
+      <c r="J16" s="2">
+        <v>54</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8">
-        <v>143</v>
-      </c>
-      <c r="I7" s="8">
-        <v>163</v>
-      </c>
-      <c r="J7" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G8" s="7" t="s">
+      <c r="I22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2">
+        <v>160</v>
+      </c>
+      <c r="J23" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" s="2">
+        <v>509</v>
+      </c>
+      <c r="J24" s="2">
+        <v>125</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" cm="1">
-        <f t="array" ref="H8">H7/Tableau2[eTour]*100</f>
-        <v>46.428571428571431</v>
-      </c>
-      <c r="I8" s="1" cm="1">
-        <f t="array" ref="I8">I7/Tableau2[iTrust]*100</f>
-        <v>38.995215311004785</v>
-      </c>
-      <c r="J8" s="3" cm="1">
-        <f t="array" ref="J8">J7/Tableau2[Albergate]*100</f>
-        <v>87.037037037037038</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
-        <v>284</v>
-      </c>
-      <c r="I9" s="1">
-        <v>474</v>
-      </c>
-      <c r="J9" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
+      <c r="H25" s="2">
+        <v>308</v>
+      </c>
+      <c r="I25" s="2">
+        <v>418</v>
+      </c>
+      <c r="J25" s="2">
+        <v>54</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>162</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" cm="1">
-        <f t="array" ref="H15">H14/Tableau2[eTour]*100</f>
-        <v>52.597402597402599</v>
-      </c>
-      <c r="I15" cm="1">
-        <f t="array" ref="I15">I14/Tableau2[iTrust]*100</f>
-        <v>0.71770334928229662</v>
-      </c>
-      <c r="J15" cm="1">
-        <f t="array" ref="J15">J14/Tableau2[Albergate]*100</f>
-        <v>35.185185185185183</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>325</v>
-      </c>
-      <c r="I16">
-        <v>131</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
+      <c r="H26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="6_{D18F53DD-BD7E-4EFC-B763-D1CA351000E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB7C680-0961-4067-B74B-E36367F77DEE}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="6_{D18F53DD-BD7E-4EFC-B763-D1CA351000E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8174C1A-62BD-4350-9321-53CD49DBEDC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>eTour</t>
   </si>
@@ -157,6 +156,39 @@
   </si>
   <si>
     <t>with_code</t>
+  </si>
+  <si>
+    <t>with_all_generated_comment</t>
+  </si>
+  <si>
+    <t>0.4412</t>
+  </si>
+  <si>
+    <t>0.2715</t>
+  </si>
+  <si>
+    <t>0.2623</t>
+  </si>
+  <si>
+    <t>0.0974</t>
+  </si>
+  <si>
+    <t>0.3254</t>
+  </si>
+  <si>
+    <t>0.5926</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>0.1594</t>
+  </si>
+  <si>
+    <t>0.2960</t>
+  </si>
+  <si>
+    <t>0.3633</t>
   </si>
 </sst>
 </file>
@@ -217,6 +249,21 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -271,18 +318,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -303,100 +429,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -411,13 +443,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J11" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J11" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="G5:J11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,28 +469,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67A10623-EB36-4284-843F-216B3A3DFE9E}" name="Tableau4" displayName="Tableau4" ref="G30:J36" totalsRowShown="0">
+  <autoFilter ref="G30:J36" xr:uid="{67A10623-EB36-4284-843F-216B3A3DFE9E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7B639B08-BBD7-418A-971C-7718A3003F1A}" name="with_all_generated_comment"/>
+    <tableColumn id="2" xr3:uid="{3F5A7B4F-9A53-4AAF-9D47-265C27497AE4}" name="eTour"/>
+    <tableColumn id="3" xr3:uid="{078F3145-3F9A-4E02-B5ED-6077887BB2E1}" name="iTrust"/>
+    <tableColumn id="4" xr3:uid="{5C6FCB9A-FC93-48F1-9108-E619AEEFA59D}" name="Albergate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -725,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:Q30"/>
+  <dimension ref="B5:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,18 +1189,115 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>136</v>
+      </c>
+      <c r="J31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <v>501</v>
+      </c>
+      <c r="J32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>308</v>
+      </c>
+      <c r="I33">
+        <v>418</v>
+      </c>
+      <c r="J33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marius.pingaud\OneDrive - BERGER-LEVRAULT\Bureau\Sorbonne\M2\Master thesis\Requirement Engineering\master_thesis_xp\pythonv2\results\response_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="6_{D18F53DD-BD7E-4EFC-B763-D1CA351000E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8174C1A-62BD-4350-9321-53CD49DBEDC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517C8EE-2180-439A-8228-B9DD769D3DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>eTour</t>
   </si>
@@ -189,6 +189,36 @@
   </si>
   <si>
     <t>0.3633</t>
+  </si>
+  <si>
+    <t>with_code + reranker</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.490</t>
   </si>
 </sst>
 </file>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,25 +273,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -318,97 +428,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -429,6 +460,119 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -443,13 +587,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="G5:J11" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="G5:J11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="L5:O11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,26 +613,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,6 +646,19 @@
     <tableColumn id="2" xr3:uid="{3F5A7B4F-9A53-4AAF-9D47-265C27497AE4}" name="eTour"/>
     <tableColumn id="3" xr3:uid="{078F3145-3F9A-4E02-B5ED-6077887BB2E1}" name="iTrust"/>
     <tableColumn id="4" xr3:uid="{5C6FCB9A-FC93-48F1-9108-E619AEEFA59D}" name="Albergate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="G5:J11" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -772,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,9 +943,13 @@
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -813,8 +974,18 @@
       <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -835,16 +1006,26 @@
         <v>7</v>
       </c>
       <c r="H6" s="2">
+        <v>106</v>
+      </c>
+      <c r="I6" s="2">
+        <v>131</v>
+      </c>
+      <c r="J6" s="2">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
         <v>143</v>
       </c>
-      <c r="I6" s="2">
+      <c r="N6" s="2">
         <v>163</v>
       </c>
-      <c r="J6" s="2">
+      <c r="O6" s="2">
         <v>47</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
@@ -853,16 +1034,26 @@
         <v>8</v>
       </c>
       <c r="H7" s="2">
+        <v>228</v>
+      </c>
+      <c r="I7" s="2">
+        <v>440</v>
+      </c>
+      <c r="J7" s="2">
+        <v>97</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
         <v>284</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>474</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>134</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
@@ -879,8 +1070,18 @@
       <c r="J8" s="2">
         <v>54</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="2">
+        <v>308</v>
+      </c>
+      <c r="N8" s="2">
+        <v>418</v>
+      </c>
+      <c r="O8" s="2">
+        <v>54</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
@@ -889,16 +1090,26 @@
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
@@ -907,16 +1118,26 @@
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
@@ -924,17 +1145,27 @@
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
@@ -951,8 +1182,6 @@
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
@@ -969,8 +1198,6 @@
       <c r="J14" s="2">
         <v>19</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
@@ -987,8 +1214,6 @@
       <c r="J15" s="2">
         <v>50</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
@@ -1005,8 +1230,6 @@
       <c r="J16" s="2">
         <v>54</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
@@ -1023,8 +1246,6 @@
       <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
@@ -1041,8 +1262,6 @@
       <c r="J18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
@@ -1059,8 +1278,6 @@
       <c r="J19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
@@ -1292,12 +1509,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marius.pingaud\OneDrive - BERGER-LEVRAULT\Bureau\Sorbonne\M2\Master thesis\Requirement Engineering\master_thesis_xp\pythonv2\results\response_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517C8EE-2180-439A-8228-B9DD769D3DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40FFABB-8D7E-4750-9ACC-0961ECF3F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="136">
   <si>
     <t>eTour</t>
   </si>
@@ -219,6 +219,231 @@
   </si>
   <si>
     <t>0.490</t>
+  </si>
+  <si>
+    <t>Base RAG :</t>
+  </si>
+  <si>
+    <t>Reranker</t>
+  </si>
+  <si>
+    <t>0.4646</t>
+  </si>
+  <si>
+    <t>0.2932</t>
+  </si>
+  <si>
+    <t>0.2700</t>
+  </si>
+  <si>
+    <t>0.3409</t>
+  </si>
+  <si>
+    <t>0.2990</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>0.3931</t>
+  </si>
+  <si>
+    <t>0.2961</t>
+  </si>
+  <si>
+    <t>0.3529</t>
+  </si>
+  <si>
+    <t>with_code_comment + reranker</t>
+  </si>
+  <si>
+    <t>with_one_comment + reranker</t>
+  </si>
+  <si>
+    <t>0.4834</t>
+  </si>
+  <si>
+    <t>0.2712</t>
+  </si>
+  <si>
+    <t>0.3017</t>
+  </si>
+  <si>
+    <t>0.3312</t>
+  </si>
+  <si>
+    <t>0.3301</t>
+  </si>
+  <si>
+    <t>0.6481</t>
+  </si>
+  <si>
+    <t>0.3924</t>
+  </si>
+  <si>
+    <t>0.2983</t>
+  </si>
+  <si>
+    <t>0.4123</t>
+  </si>
+  <si>
+    <t>BM25</t>
+  </si>
+  <si>
+    <t>with_code + bm25</t>
+  </si>
+  <si>
+    <t>0.4556</t>
+  </si>
+  <si>
+    <t>0.3834</t>
+  </si>
+  <si>
+    <t>0.2704</t>
+  </si>
+  <si>
+    <t>0.3994</t>
+  </si>
+  <si>
+    <t>0.4043</t>
+  </si>
+  <si>
+    <t>0.7963</t>
+  </si>
+  <si>
+    <t>0.4253</t>
+  </si>
+  <si>
+    <t>0.3936</t>
+  </si>
+  <si>
+    <t>0.4033</t>
+  </si>
+  <si>
+    <t>with_code_comment + bm25</t>
+  </si>
+  <si>
+    <t>0.4554</t>
+  </si>
+  <si>
+    <t>0.4692</t>
+  </si>
+  <si>
+    <t>0.5254</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.2919</t>
+  </si>
+  <si>
+    <t>0.5741</t>
+  </si>
+  <si>
+    <t>0.3512</t>
+  </si>
+  <si>
+    <t>0.3594</t>
+  </si>
+  <si>
+    <t>0.5488</t>
+  </si>
+  <si>
+    <t>0.4734</t>
+  </si>
+  <si>
+    <t>0.3423</t>
+  </si>
+  <si>
+    <t>0.3402</t>
+  </si>
+  <si>
+    <t>0.3182</t>
+  </si>
+  <si>
+    <t>0.4067</t>
+  </si>
+  <si>
+    <t>0.6111</t>
+  </si>
+  <si>
+    <t>0.3802</t>
+  </si>
+  <si>
+    <t>0.3729</t>
+  </si>
+  <si>
+    <t>0.4367</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>with_code + mmr</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0.3349</t>
+  </si>
+  <si>
+    <t>0.4429</t>
+  </si>
+  <si>
+    <t>0.2305</t>
+  </si>
+  <si>
+    <t>0.2725</t>
+  </si>
+  <si>
+    <t>0.4992</t>
+  </si>
+  <si>
+    <t>0.4780</t>
+  </si>
+  <si>
+    <t>0.3554</t>
+  </si>
+  <si>
+    <t>0.4051</t>
+  </si>
+  <si>
+    <t>0.2825</t>
+  </si>
+  <si>
+    <t>0.2823</t>
+  </si>
+  <si>
+    <t>0.3561</t>
+  </si>
+  <si>
+    <t>0.3145</t>
+  </si>
+  <si>
+    <t>0.4820</t>
+  </si>
+  <si>
+    <t>0.4231</t>
+  </si>
+  <si>
+    <t>0.2808</t>
+  </si>
+  <si>
+    <t>0.4221</t>
+  </si>
+  <si>
+    <t>0.4091</t>
+  </si>
+  <si>
+    <t>0.4226</t>
+  </si>
+  <si>
+    <t>0.3329</t>
+  </si>
+  <si>
+    <t>0.4127</t>
   </si>
 </sst>
 </file>
@@ -262,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,104 +499,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+  <dxfs count="80">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -428,18 +577,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -462,97 +690,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -573,6 +722,515 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -587,15 +1245,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
   <autoFilter ref="L5:O11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}" name="Tableau3811" displayName="Tableau3811" ref="Q13:T19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="Q13:T19" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9347040B-0E36-43BB-85F2-243EAE4E823B}" name="with_code_comment + bm25" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{917A205A-BEF8-44AA-8F5C-9BF915F85A31}" name="eTour" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A6312E17-59C5-459B-984C-C4040DDD55E0}" name="iTrust" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{3EB66885-21D9-471B-8284-ABC9CF0BD1AB}" name="Albergate" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}" name="Tableau6912" displayName="Tableau6912" ref="Q22:T28" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="Q22:T28" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{670AAE3D-269C-4EFA-B089-CCA727C572DB}" name="with_one_comment + reranker" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2D684B5A-27C5-40FF-A87F-359D1DFC74A5}" name="eTour" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{6C2C1949-8FF5-490F-AF96-0F164F5BE68C}" name="iTrust" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7D6C5E44-5596-49DB-99E8-26305AB7A429}" name="Albergate" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}" name="Tableau11013" displayName="Tableau11013" ref="V5:Y11" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="V5:Y11" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9D7FF411-C198-4131-A4C1-A6B6AA18172E}" name="with_code + mmr" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{BB9B9C16-EB8A-461B-B0CB-A869B21EB9A9}" name="eTour" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2F9BC951-9BF2-4F25-9703-D4A7359E7D62}" name="iTrust" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8E101BF3-F53F-4A20-935F-3C6B6EC2ABE1}" name="Albergate" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}" name="Tableau381114" displayName="Tableau381114" ref="V13:Y19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="V13:Y19" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{02F821A7-4047-4198-AA79-F558B08EA884}" name="with_code_comment + bm25" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1279B9B4-CA5E-4962-9DCD-784738C9379A}" name="eTour" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{55EBC0AD-4CB1-4760-984B-27202F799DB7}" name="iTrust" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{14654780-53CC-475F-B26C-6B9C93D323EC}" name="Albergate" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}" name="Tableau691215" displayName="Tableau691215" ref="V22:Y28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="V22:Y28" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B7C87BF3-9179-4C97-8646-D554C89E4D96}" name="with_one_comment + reranker" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BD70B472-B048-400E-AA88-B294F06C9CCF}" name="eTour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{56C94BAC-DB5A-45B1-BA9A-BEC9BE4D23A4}" name="iTrust" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{34D01FDB-0394-43E0-A0C7-FFB989066B7C}" name="Albergate" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -613,26 +1336,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,13 +1375,52 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="G5:J11" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}" name="Tableau38" displayName="Tableau38" ref="L13:O19" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="L13:O19" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{39F59118-780F-40AF-B3DE-8DC78FD90908}" name="with_code_comment + reranker" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{AB112250-8B2B-46B4-8EB7-3788774E9D67}" name="eTour" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6337943C-5AA0-4A68-8AB8-FD50CACF0762}" name="iTrust" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{62551087-432B-4FDA-B3D0-E0BBFFB2E508}" name="Albergate" dataDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}" name="Tableau69" displayName="Tableau69" ref="L22:O28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="L22:O28" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{409D4A8B-FFDC-4831-BCE0-490551796F9F}" name="with_one_comment + reranker" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{D394C109-4206-488C-B70E-333F018DE558}" name="eTour" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{ADE0C645-C922-4720-9346-9E5D6AD79A43}" name="iTrust" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{5D680130-5FCA-456E-8EAA-353A0846B77A}" name="Albergate" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}" name="Tableau110" displayName="Tableau110" ref="Q5:T11" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+  <autoFilter ref="Q5:T11" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8522F80B-BBCE-41B7-8831-DA4C551539A9}" name="with_code + bm25" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{7995C1BD-3544-4BC4-9ED4-22AF5B1A9107}" name="eTour" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{E5DE4606-951B-473E-AECC-D6D054360C4D}" name="iTrust" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2F902C68-3C40-439E-B52E-A785665EDC43}" name="Albergate" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:Q36"/>
+  <dimension ref="B3:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,9 +1709,24 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13.21875" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -987,9 +1764,32 @@
         <v>2</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1027,9 +1827,32 @@
         <v>47</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2">
+        <v>123</v>
+      </c>
+      <c r="S6" s="2">
+        <v>169</v>
+      </c>
+      <c r="T6" s="2">
+        <v>43</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1055,9 +1878,32 @@
         <v>134</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2">
+        <v>270</v>
+      </c>
+      <c r="S7" s="2">
+        <v>441</v>
+      </c>
+      <c r="T7" s="2">
+        <v>159</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="2">
+        <v>212</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1083,9 +1929,32 @@
         <v>54</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>308</v>
+      </c>
+      <c r="S8" s="2">
+        <v>418</v>
+      </c>
+      <c r="T8" s="2">
+        <v>54</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="2">
+        <v>308</v>
+      </c>
+      <c r="X8" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1111,9 +1980,32 @@
         <v>13</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1139,9 +2031,32 @@
         <v>17</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1167,9 +2082,32 @@
         <v>21</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1182,10 +2120,45 @@
       <c r="J13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1198,10 +2171,45 @@
       <c r="J14" s="2">
         <v>19</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="2">
+        <v>105</v>
+      </c>
+      <c r="N14" s="2">
+        <v>125</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="2">
+        <v>88</v>
+      </c>
+      <c r="S14" s="2">
+        <v>122</v>
+      </c>
+      <c r="T14" s="2">
+        <v>31</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="2">
+        <v>87</v>
+      </c>
+      <c r="X14" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1214,10 +2222,45 @@
       <c r="J15" s="2">
         <v>50</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>226</v>
+      </c>
+      <c r="N15" s="2">
+        <v>426</v>
+      </c>
+      <c r="O15" s="2">
+        <v>100</v>
+      </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="2">
+        <v>193</v>
+      </c>
+      <c r="S15" s="2">
+        <v>260</v>
+      </c>
+      <c r="T15" s="2">
+        <v>59</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="2">
+        <v>182</v>
+      </c>
+      <c r="X15" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>79</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1230,10 +2273,45 @@
       <c r="J16" s="2">
         <v>54</v>
       </c>
+      <c r="L16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>308</v>
+      </c>
+      <c r="N16" s="2">
+        <v>418</v>
+      </c>
+      <c r="O16" s="2">
+        <v>54</v>
+      </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="2">
+        <v>308</v>
+      </c>
+      <c r="S16" s="2">
+        <v>418</v>
+      </c>
+      <c r="T16" s="2">
+        <v>54</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="2">
+        <v>308</v>
+      </c>
+      <c r="X16" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1246,10 +2324,45 @@
       <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="L17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1262,10 +2375,45 @@
       <c r="J18" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="L18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1278,10 +2426,45 @@
       <c r="J19" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="22" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,8 +2477,44 @@
       <c r="J22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1308,8 +2527,44 @@
       <c r="J23" s="2">
         <v>39</v>
       </c>
+      <c r="L23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2">
+        <v>102</v>
+      </c>
+      <c r="N23" s="2">
+        <v>138</v>
+      </c>
+      <c r="O23" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="2">
+        <v>98</v>
+      </c>
+      <c r="S23" s="2">
+        <v>170</v>
+      </c>
+      <c r="T23" s="2">
+        <v>33</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="2">
+        <v>130</v>
+      </c>
+      <c r="X23" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1322,12 +2577,45 @@
       <c r="J24" s="2">
         <v>125</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="L24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="2">
+        <v>211</v>
+      </c>
+      <c r="N24" s="2">
+        <v>509</v>
+      </c>
+      <c r="O24" s="2">
+        <v>116</v>
+      </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="2">
+        <v>207</v>
+      </c>
+      <c r="S24" s="2">
+        <v>497</v>
+      </c>
+      <c r="T24" s="2">
+        <v>97</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="2">
+        <v>307</v>
+      </c>
+      <c r="X24" s="2">
+        <v>609</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="25" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1340,12 +2628,45 @@
       <c r="J25" s="2">
         <v>54</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="2">
+        <v>308</v>
+      </c>
+      <c r="N25" s="2">
+        <v>418</v>
+      </c>
+      <c r="O25" s="2">
+        <v>54</v>
+      </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2">
+        <v>308</v>
+      </c>
+      <c r="S25" s="2">
+        <v>418</v>
+      </c>
+      <c r="T25" s="2">
+        <v>54</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="2">
+        <v>308</v>
+      </c>
+      <c r="X25" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="26" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1358,12 +2679,45 @@
       <c r="J26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="L26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="27" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1376,12 +2730,45 @@
       <c r="J27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="L27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="28" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
@@ -1394,18 +2781,51 @@
       <c r="J28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="29" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:25" x14ac:dyDescent="0.3">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -1423,7 +2843,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +2857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>8</v>
       </c>
@@ -1509,13 +2929,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marius.pingaud\OneDrive - BERGER-LEVRAULT\Bureau\Sorbonne\M2\Master thesis\Requirement Engineering\master_thesis_xp\pythonv2\results\response_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40FFABB-8D7E-4750-9ACC-0961ECF3F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{F40FFABB-8D7E-4750-9ACC-0961ECF3F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903CCEEA-D777-4D6D-A32A-DDDCADB80DD5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
   <si>
     <t>eTour</t>
   </si>
@@ -444,6 +444,117 @@
   </si>
   <si>
     <t>0.4127</t>
+  </si>
+  <si>
+    <t>Few-Shots</t>
+  </si>
+  <si>
+    <t>0.3283</t>
+  </si>
+  <si>
+    <t>0.3684</t>
+  </si>
+  <si>
+    <t>0.6296</t>
+  </si>
+  <si>
+    <t>0.3472</t>
+  </si>
+  <si>
+    <t>0.4286</t>
+  </si>
+  <si>
+    <t>0.4198</t>
+  </si>
+  <si>
+    <t>0.3604</t>
+  </si>
+  <si>
+    <t>0.3917</t>
+  </si>
+  <si>
+    <t>0.5046</t>
+  </si>
+  <si>
+    <t>with_one_comment + MMR</t>
+  </si>
+  <si>
+    <t>with_one_comment + bm25</t>
+  </si>
+  <si>
+    <t>CoT</t>
+  </si>
+  <si>
+    <t>0.2517</t>
+  </si>
+  <si>
+    <t>0.4634</t>
+  </si>
+  <si>
+    <t>0.2706</t>
+  </si>
+  <si>
+    <t>0.7037</t>
+  </si>
+  <si>
+    <t>0.2609</t>
+  </si>
+  <si>
+    <t>0.5597</t>
+  </si>
+  <si>
+    <t>0.4650</t>
+  </si>
+  <si>
+    <t>0.3260</t>
+  </si>
+  <si>
+    <t>0.3537</t>
+  </si>
+  <si>
+    <t>0.3019</t>
+  </si>
+  <si>
+    <t>0.5370</t>
+  </si>
+  <si>
+    <t>0.3674</t>
+  </si>
+  <si>
+    <t>0.3029</t>
+  </si>
+  <si>
+    <t>0.4278</t>
+  </si>
+  <si>
+    <t>0.5074</t>
+  </si>
+  <si>
+    <t>0.2951</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t>0.3344</t>
+  </si>
+  <si>
+    <t>0.2323</t>
+  </si>
+  <si>
+    <t>0.4030</t>
+  </si>
+  <si>
+    <t>0.2597</t>
+  </si>
+  <si>
+    <t>0.4121</t>
+  </si>
+  <si>
+    <t>0.5523</t>
+  </si>
+  <si>
+    <t>0.4821</t>
   </si>
 </sst>
 </file>
@@ -506,7 +617,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="108">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -543,18 +654,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -577,97 +767,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -690,18 +801,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -758,97 +948,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -871,18 +982,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -939,97 +1129,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1052,18 +1163,97 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1120,97 +1310,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1231,6 +1342,300 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1245,78 +1650,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
   <autoFilter ref="L5:O11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}" name="Tableau3811" displayName="Tableau3811" ref="Q13:T19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}" name="Tableau3811" displayName="Tableau3811" ref="Q13:T19" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Q13:T19" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9347040B-0E36-43BB-85F2-243EAE4E823B}" name="with_code_comment + bm25" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{917A205A-BEF8-44AA-8F5C-9BF915F85A31}" name="eTour" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A6312E17-59C5-459B-984C-C4040DDD55E0}" name="iTrust" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{3EB66885-21D9-471B-8284-ABC9CF0BD1AB}" name="Albergate" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{9347040B-0E36-43BB-85F2-243EAE4E823B}" name="with_code_comment + bm25" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{917A205A-BEF8-44AA-8F5C-9BF915F85A31}" name="eTour" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{A6312E17-59C5-459B-984C-C4040DDD55E0}" name="iTrust" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{3EB66885-21D9-471B-8284-ABC9CF0BD1AB}" name="Albergate" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}" name="Tableau6912" displayName="Tableau6912" ref="Q22:T28" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}" name="Tableau6912" displayName="Tableau6912" ref="Q22:T28" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="Q22:T28" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{670AAE3D-269C-4EFA-B089-CCA727C572DB}" name="with_one_comment + reranker" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{2D684B5A-27C5-40FF-A87F-359D1DFC74A5}" name="eTour" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{6C2C1949-8FF5-490F-AF96-0F164F5BE68C}" name="iTrust" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{7D6C5E44-5596-49DB-99E8-26305AB7A429}" name="Albergate" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{670AAE3D-269C-4EFA-B089-CCA727C572DB}" name="with_one_comment + bm25" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{2D684B5A-27C5-40FF-A87F-359D1DFC74A5}" name="eTour" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{6C2C1949-8FF5-490F-AF96-0F164F5BE68C}" name="iTrust" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{7D6C5E44-5596-49DB-99E8-26305AB7A429}" name="Albergate" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}" name="Tableau11013" displayName="Tableau11013" ref="V5:Y11" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}" name="Tableau11013" displayName="Tableau11013" ref="V5:Y11" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="V5:Y11" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D7FF411-C198-4131-A4C1-A6B6AA18172E}" name="with_code + mmr" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BB9B9C16-EB8A-461B-B0CB-A869B21EB9A9}" name="eTour" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2F9BC951-9BF2-4F25-9703-D4A7359E7D62}" name="iTrust" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8E101BF3-F53F-4A20-935F-3C6B6EC2ABE1}" name="Albergate" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{9D7FF411-C198-4131-A4C1-A6B6AA18172E}" name="with_code + mmr" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{BB9B9C16-EB8A-461B-B0CB-A869B21EB9A9}" name="eTour" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{2F9BC951-9BF2-4F25-9703-D4A7359E7D62}" name="iTrust" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{8E101BF3-F53F-4A20-935F-3C6B6EC2ABE1}" name="Albergate" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}" name="Tableau381114" displayName="Tableau381114" ref="V13:Y19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}" name="Tableau381114" displayName="Tableau381114" ref="V13:Y19" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="V13:Y19" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02F821A7-4047-4198-AA79-F558B08EA884}" name="with_code_comment + bm25" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1279B9B4-CA5E-4962-9DCD-784738C9379A}" name="eTour" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{55EBC0AD-4CB1-4760-984B-27202F799DB7}" name="iTrust" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{14654780-53CC-475F-B26C-6B9C93D323EC}" name="Albergate" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{02F821A7-4047-4198-AA79-F558B08EA884}" name="with_code_comment + bm25" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1279B9B4-CA5E-4962-9DCD-784738C9379A}" name="eTour" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{55EBC0AD-4CB1-4760-984B-27202F799DB7}" name="iTrust" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{14654780-53CC-475F-B26C-6B9C93D323EC}" name="Albergate" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}" name="Tableau691215" displayName="Tableau691215" ref="V22:Y28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}" name="Tableau691215" displayName="Tableau691215" ref="V22:Y28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="V22:Y28" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B7C87BF3-9179-4C97-8646-D554C89E4D96}" name="with_one_comment + reranker" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BD70B472-B048-400E-AA88-B294F06C9CCF}" name="eTour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{56C94BAC-DB5A-45B1-BA9A-BEC9BE4D23A4}" name="iTrust" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{34D01FDB-0394-43E0-A0C7-FFB989066B7C}" name="Albergate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B7C87BF3-9179-4C97-8646-D554C89E4D96}" name="with_one_comment + MMR" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{BD70B472-B048-400E-AA88-B294F06C9CCF}" name="eTour" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{56C94BAC-DB5A-45B1-BA9A-BEC9BE4D23A4}" name="iTrust" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{34D01FDB-0394-43E0-A0C7-FFB989066B7C}" name="Albergate" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8E049A88-D09A-4968-A1D5-27C4B27B8EA8}" name="Tableau1101316" displayName="Tableau1101316" ref="AA5:AD11" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="AA5:AD11" xr:uid="{8E049A88-D09A-4968-A1D5-27C4B27B8EA8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D6828ACA-0749-4E1C-BC30-BEF9434D54CB}" name="with_code + mmr" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{ACAE80AE-7E63-4EE7-BCC3-63914A54E142}" name="eTour" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{226F2CE3-F8AC-4D52-8D02-237E23A7B7F4}" name="iTrust" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{EE8F8323-6A12-4AA7-AD13-95B5851C0FF5}" name="Albergate" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{752A1E0D-AC7A-4F56-91EF-6E3F52719770}" name="Tableau6917" displayName="Tableau6917" ref="AA13:AD19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="AA13:AD19" xr:uid="{752A1E0D-AC7A-4F56-91EF-6E3F52719770}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2A466485-C1D6-4149-8305-01E0C5DCBB8B}" name="with_one_comment + reranker" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D7B292AF-645B-4E9A-ABF2-CB85C189515C}" name="eTour" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2D7AD191-53D1-4DB1-B0D0-22B65362AA62}" name="iTrust" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{1CD27B8E-BC56-4BA2-B47B-21870EE5638B}" name="Albergate" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C8153DE0-31FD-46CD-8975-66FBA815A498}" name="Tableau110131618" displayName="Tableau110131618" ref="AF5:AI11" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="AF5:AI11" xr:uid="{C8153DE0-31FD-46CD-8975-66FBA815A498}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FD01F8E1-0625-41AD-9ACF-2A14448890FA}" name="with_code + mmr" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{81C59ABE-3BEC-4917-93D3-F945D5B70D17}" name="eTour" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3A7282F5-F1AF-4271-A278-6DE3EAC0924E}" name="iTrust" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{84E25784-E643-4BB8-ACC1-ABCAE60A3A50}" name="Albergate" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{56F490BC-C4A0-450D-AB17-7BD95FEC1A6F}" name="Tableau691719" displayName="Tableau691719" ref="AF13:AI19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="AF13:AI19" xr:uid="{56F490BC-C4A0-450D-AB17-7BD95FEC1A6F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{76D84DAF-D972-4575-9708-A3FBE903005B}" name="with_one_comment + reranker" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A297F5E8-62D9-4686-83BA-5A76A4F7780C}" name="eTour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4752DE03-8DA4-42C5-81E1-6F4CDC701A92}" name="iTrust" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AE361B5C-ABB4-489E-8B47-3F8D98CD4C80}" name="Albergate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1336,26 +1793,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1375,52 +1832,52 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
   <autoFilter ref="G5:J11" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}" name="Tableau38" displayName="Tableau38" ref="L13:O19" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}" name="Tableau38" displayName="Tableau38" ref="L13:O19" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="L13:O19" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{39F59118-780F-40AF-B3DE-8DC78FD90908}" name="with_code_comment + reranker" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{AB112250-8B2B-46B4-8EB7-3788774E9D67}" name="eTour" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{6337943C-5AA0-4A68-8AB8-FD50CACF0762}" name="iTrust" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{62551087-432B-4FDA-B3D0-E0BBFFB2E508}" name="Albergate" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{39F59118-780F-40AF-B3DE-8DC78FD90908}" name="with_code_comment + reranker" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{AB112250-8B2B-46B4-8EB7-3788774E9D67}" name="eTour" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{6337943C-5AA0-4A68-8AB8-FD50CACF0762}" name="iTrust" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{62551087-432B-4FDA-B3D0-E0BBFFB2E508}" name="Albergate" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}" name="Tableau69" displayName="Tableau69" ref="L22:O28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}" name="Tableau69" displayName="Tableau69" ref="L22:O28" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="L22:O28" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{409D4A8B-FFDC-4831-BCE0-490551796F9F}" name="with_one_comment + reranker" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{D394C109-4206-488C-B70E-333F018DE558}" name="eTour" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{ADE0C645-C922-4720-9346-9E5D6AD79A43}" name="iTrust" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{5D680130-5FCA-456E-8EAA-353A0846B77A}" name="Albergate" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{409D4A8B-FFDC-4831-BCE0-490551796F9F}" name="with_one_comment + reranker" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{D394C109-4206-488C-B70E-333F018DE558}" name="eTour" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{ADE0C645-C922-4720-9346-9E5D6AD79A43}" name="iTrust" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{5D680130-5FCA-456E-8EAA-353A0846B77A}" name="Albergate" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}" name="Tableau110" displayName="Tableau110" ref="Q5:T11" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}" name="Tableau110" displayName="Tableau110" ref="Q5:T11" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="Q5:T11" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8522F80B-BBCE-41B7-8831-DA4C551539A9}" name="with_code + bm25" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{7995C1BD-3544-4BC4-9ED4-22AF5B1A9107}" name="eTour" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E5DE4606-951B-473E-AECC-D6D054360C4D}" name="iTrust" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{2F902C68-3C40-439E-B52E-A785665EDC43}" name="Albergate" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{8522F80B-BBCE-41B7-8831-DA4C551539A9}" name="with_code + bm25" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{7995C1BD-3544-4BC4-9ED4-22AF5B1A9107}" name="eTour" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{E5DE4606-951B-473E-AECC-D6D054360C4D}" name="iTrust" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{2F902C68-3C40-439E-B52E-A785665EDC43}" name="Albergate" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1689,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Y36"/>
+  <dimension ref="B3:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,9 +2167,10 @@
     <col min="14" max="14" width="13.21875" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
     <col min="17" max="17" width="14.21875" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>61</v>
       </c>
@@ -1725,8 +2183,14 @@
       <c r="V3" t="s">
         <v>113</v>
       </c>
+      <c r="AA3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="5" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1788,8 +2252,32 @@
       <c r="Y5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AA5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1851,8 +2339,32 @@
       <c r="Y6" s="2">
         <v>31</v>
       </c>
+      <c r="AA6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>154</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>118</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1902,8 +2414,32 @@
       <c r="Y7" s="2">
         <v>70</v>
       </c>
+      <c r="AA7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>259</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>469</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>200</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>362</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>82</v>
+      </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1953,8 +2489,32 @@
       <c r="Y8" s="2">
         <v>54</v>
       </c>
+      <c r="AA8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>308</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>418</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>54</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>308</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +2540,7 @@
         <v>13</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1992,7 +2552,7 @@
       <c r="T9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W9" s="2" t="s">
@@ -2004,8 +2564,32 @@
       <c r="Y9" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="AA9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="2" t="s">
@@ -2043,7 +2627,7 @@
       <c r="T10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W10" s="2" t="s">
@@ -2055,8 +2639,32 @@
       <c r="Y10" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="AA10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2097,17 +2705,41 @@
       <c r="V11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="AA11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="13" spans="2:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2157,8 +2789,32 @@
       <c r="Y13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AA13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2208,8 +2864,32 @@
       <c r="Y14" s="2">
         <v>32</v>
       </c>
+      <c r="AA14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>97</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2259,8 +2939,32 @@
       <c r="Y15" s="2">
         <v>79</v>
       </c>
+      <c r="AA15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>239</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>449</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>203</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>328</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>87</v>
+      </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2310,8 +3014,32 @@
       <c r="Y16" s="2">
         <v>54</v>
       </c>
+      <c r="AA16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>308</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>418</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>54</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>308</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +3052,7 @@
       <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -2337,7 +3065,7 @@
         <v>65</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -2349,7 +3077,7 @@
       <c r="T17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W17" s="2" t="s">
@@ -2361,8 +3089,32 @@
       <c r="Y17" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="AA17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2375,7 +3127,7 @@
       <c r="J18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -2388,7 +3140,7 @@
         <v>68</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R18" s="2" t="s">
@@ -2400,7 +3152,7 @@
       <c r="T18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W18" s="2" t="s">
@@ -2412,8 +3164,32 @@
       <c r="Y18" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AA18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2463,8 +3239,32 @@
       <c r="Y19" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="AA19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="22" spans="7:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:35" ht="57.6" x14ac:dyDescent="0.3">
       <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>0</v>
@@ -2502,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>0</v>
@@ -2514,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +3364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +3415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +3466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2679,7 +3479,7 @@
       <c r="J26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -2692,7 +3492,7 @@
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -2704,7 +3504,7 @@
       <c r="T26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="W26" s="2" t="s">
@@ -2717,7 +3517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +3530,7 @@
       <c r="J27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -2743,7 +3543,7 @@
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -2755,7 +3555,7 @@
       <c r="T27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W27" s="2" t="s">
@@ -2768,7 +3568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
@@ -2819,13 +3619,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:35" x14ac:dyDescent="0.3">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>40</v>
       </c>
@@ -2843,7 +3643,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +3657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:35" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>8</v>
       </c>
@@ -2929,7 +3729,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="14">
+  <tableParts count="18">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2944,6 +3744,10 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pythonv2/results/response_excel/responses.xlsx
+++ b/pythonv2/results/response_excel/responses.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blevraultgroup-my.sharepoint.com/personal/marius_pingaud_berger-levrault_com/Documents/Bureau/Sorbonne/M2/Master thesis/Requirement Engineering/master_thesis_xp/pythonv2/results/response_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{F40FFABB-8D7E-4750-9ACC-0961ECF3F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903CCEEA-D777-4D6D-A32A-DDDCADB80DD5}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{F40FFABB-8D7E-4750-9ACC-0961ECF3F1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F825A9-D703-4483-B01B-33700F8CC26B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="184">
   <si>
     <t>eTour</t>
   </si>
@@ -555,6 +556,39 @@
   </si>
   <si>
     <t>0.4821</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>with_code+reranker</t>
+  </si>
+  <si>
+    <t>with_code+bm25</t>
+  </si>
+  <si>
+    <t>with_code+mmr</t>
+  </si>
+  <si>
+    <t>with_code_comment+reranker</t>
+  </si>
+  <si>
+    <t>with_code_comment+bm25</t>
+  </si>
+  <si>
+    <t>with_code_comment+mmr</t>
+  </si>
+  <si>
+    <t>with_one_comment+reranker</t>
+  </si>
+  <si>
+    <t>with_one_comment+bm25</t>
+  </si>
+  <si>
+    <t>with_one_comment+mmr</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
   </si>
 </sst>
 </file>
@@ -578,15 +612,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -594,45 +634,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="165">
     <dxf>
       <font>
         <b/>
@@ -654,7 +864,40 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -665,45 +908,63 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -714,33 +975,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -764,21 +1034,67 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -800,8 +1116,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -812,45 +1131,72 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -861,7 +1207,97 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -885,6 +1321,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -913,19 +1352,125 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -945,21 +1490,143 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -979,10 +1646,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -993,45 +1676,63 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1042,33 +1743,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1092,21 +1802,143 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1126,21 +1958,143 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1160,70 +2114,34 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1247,6 +2165,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1275,19 +2196,125 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1307,21 +2334,143 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1341,70 +2490,34 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1428,6 +2541,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1456,19 +2572,261 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1488,21 +2846,139 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1522,10 +2998,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1536,45 +3028,63 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1585,6 +3095,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1609,6 +3125,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1635,6 +3154,22 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1650,132 +3185,151 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}" name="Tableau1" displayName="Tableau1" ref="L5:O11" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="L5:O11" xr:uid="{8EDBC4B4-639B-4772-9246-3F92633C6CE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{2AE86955-5798-4F53-944E-C4AEAE0C26C5}" name="with_code + reranker" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{CB44D13F-E14C-42CC-85F2-95DFA9C0A213}" name="eTour" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{5739C6E6-A1DC-4075-85F7-8F23A7ECB5DC}" name="iTrust" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{C26F2C11-B71F-4B3C-A052-7F87436BD110}" name="Albergate" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}" name="Tableau3811" displayName="Tableau3811" ref="Q13:T19" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}" name="Tableau3811" displayName="Tableau3811" ref="Q13:T19" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="88">
   <autoFilter ref="Q13:T19" xr:uid="{46909BD3-B9F5-4B4D-890E-AF1D45F33F8D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9347040B-0E36-43BB-85F2-243EAE4E823B}" name="with_code_comment + bm25" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{917A205A-BEF8-44AA-8F5C-9BF915F85A31}" name="eTour" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{A6312E17-59C5-459B-984C-C4040DDD55E0}" name="iTrust" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{3EB66885-21D9-471B-8284-ABC9CF0BD1AB}" name="Albergate" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{9347040B-0E36-43BB-85F2-243EAE4E823B}" name="with_code_comment + bm25" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{917A205A-BEF8-44AA-8F5C-9BF915F85A31}" name="eTour" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{A6312E17-59C5-459B-984C-C4040DDD55E0}" name="iTrust" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{3EB66885-21D9-471B-8284-ABC9CF0BD1AB}" name="Albergate" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}" name="Tableau6912" displayName="Tableau6912" ref="Q22:T28" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}" name="Tableau6912" displayName="Tableau6912" ref="Q22:T28" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <autoFilter ref="Q22:T28" xr:uid="{C75E8232-FDE4-45CA-9405-F8B2DFBE9D4E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{670AAE3D-269C-4EFA-B089-CCA727C572DB}" name="with_one_comment + bm25" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{2D684B5A-27C5-40FF-A87F-359D1DFC74A5}" name="eTour" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{6C2C1949-8FF5-490F-AF96-0F164F5BE68C}" name="iTrust" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{7D6C5E44-5596-49DB-99E8-26305AB7A429}" name="Albergate" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{670AAE3D-269C-4EFA-B089-CCA727C572DB}" name="with_one_comment + bm25" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{2D684B5A-27C5-40FF-A87F-359D1DFC74A5}" name="eTour" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{6C2C1949-8FF5-490F-AF96-0F164F5BE68C}" name="iTrust" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{7D6C5E44-5596-49DB-99E8-26305AB7A429}" name="Albergate" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}" name="Tableau11013" displayName="Tableau11013" ref="V5:Y11" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}" name="Tableau11013" displayName="Tableau11013" ref="V5:Y11" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <autoFilter ref="V5:Y11" xr:uid="{1A1B9DD7-BDB3-4F34-B76F-0BFBD67C5853}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D7FF411-C198-4131-A4C1-A6B6AA18172E}" name="with_code + mmr" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{BB9B9C16-EB8A-461B-B0CB-A869B21EB9A9}" name="eTour" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{2F9BC951-9BF2-4F25-9703-D4A7359E7D62}" name="iTrust" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{8E101BF3-F53F-4A20-935F-3C6B6EC2ABE1}" name="Albergate" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{9D7FF411-C198-4131-A4C1-A6B6AA18172E}" name="with_code + mmr" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{BB9B9C16-EB8A-461B-B0CB-A869B21EB9A9}" name="eTour" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{2F9BC951-9BF2-4F25-9703-D4A7359E7D62}" name="iTrust" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{8E101BF3-F53F-4A20-935F-3C6B6EC2ABE1}" name="Albergate" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}" name="Tableau381114" displayName="Tableau381114" ref="V13:Y19" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}" name="Tableau381114" displayName="Tableau381114" ref="V13:Y19" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="V13:Y19" xr:uid="{252D75EB-37AC-475F-AD6A-AFD98FD20332}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02F821A7-4047-4198-AA79-F558B08EA884}" name="with_code_comment + bm25" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1279B9B4-CA5E-4962-9DCD-784738C9379A}" name="eTour" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{55EBC0AD-4CB1-4760-984B-27202F799DB7}" name="iTrust" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{14654780-53CC-475F-B26C-6B9C93D323EC}" name="Albergate" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{02F821A7-4047-4198-AA79-F558B08EA884}" name="with_code_comment + bm25" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{1279B9B4-CA5E-4962-9DCD-784738C9379A}" name="eTour" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{55EBC0AD-4CB1-4760-984B-27202F799DB7}" name="iTrust" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{14654780-53CC-475F-B26C-6B9C93D323EC}" name="Albergate" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}" name="Tableau691215" displayName="Tableau691215" ref="V22:Y28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}" name="Tableau691215" displayName="Tableau691215" ref="V22:Y28" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="V22:Y28" xr:uid="{B269F93A-4CED-4B08-B9FD-99002ACF260B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B7C87BF3-9179-4C97-8646-D554C89E4D96}" name="with_one_comment + MMR" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{BD70B472-B048-400E-AA88-B294F06C9CCF}" name="eTour" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{56C94BAC-DB5A-45B1-BA9A-BEC9BE4D23A4}" name="iTrust" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{34D01FDB-0394-43E0-A0C7-FFB989066B7C}" name="Albergate" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B7C87BF3-9179-4C97-8646-D554C89E4D96}" name="with_one_comment + MMR" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{BD70B472-B048-400E-AA88-B294F06C9CCF}" name="eTour" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{56C94BAC-DB5A-45B1-BA9A-BEC9BE4D23A4}" name="iTrust" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{34D01FDB-0394-43E0-A0C7-FFB989066B7C}" name="Albergate" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8E049A88-D09A-4968-A1D5-27C4B27B8EA8}" name="Tableau1101316" displayName="Tableau1101316" ref="AA5:AD11" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{8E049A88-D09A-4968-A1D5-27C4B27B8EA8}" name="Tableau1101316" displayName="Tableau1101316" ref="AA5:AD11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="AA5:AD11" xr:uid="{8E049A88-D09A-4968-A1D5-27C4B27B8EA8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D6828ACA-0749-4E1C-BC30-BEF9434D54CB}" name="with_code + mmr" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{ACAE80AE-7E63-4EE7-BCC3-63914A54E142}" name="eTour" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{226F2CE3-F8AC-4D52-8D02-237E23A7B7F4}" name="iTrust" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{EE8F8323-6A12-4AA7-AD13-95B5851C0FF5}" name="Albergate" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D6828ACA-0749-4E1C-BC30-BEF9434D54CB}" name="with_code + reranker" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{ACAE80AE-7E63-4EE7-BCC3-63914A54E142}" name="eTour" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{226F2CE3-F8AC-4D52-8D02-237E23A7B7F4}" name="iTrust" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{EE8F8323-6A12-4AA7-AD13-95B5851C0FF5}" name="Albergate" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{752A1E0D-AC7A-4F56-91EF-6E3F52719770}" name="Tableau6917" displayName="Tableau6917" ref="AA13:AD19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{752A1E0D-AC7A-4F56-91EF-6E3F52719770}" name="Tableau6917" displayName="Tableau6917" ref="AA13:AD19" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="AA13:AD19" xr:uid="{752A1E0D-AC7A-4F56-91EF-6E3F52719770}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2A466485-C1D6-4149-8305-01E0C5DCBB8B}" name="with_one_comment + reranker" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D7B292AF-645B-4E9A-ABF2-CB85C189515C}" name="eTour" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2D7AD191-53D1-4DB1-B0D0-22B65362AA62}" name="iTrust" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{1CD27B8E-BC56-4BA2-B47B-21870EE5638B}" name="Albergate" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{2A466485-C1D6-4149-8305-01E0C5DCBB8B}" name="with_one_comment + reranker" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{D7B292AF-645B-4E9A-ABF2-CB85C189515C}" name="eTour" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{2D7AD191-53D1-4DB1-B0D0-22B65362AA62}" name="iTrust" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{1CD27B8E-BC56-4BA2-B47B-21870EE5638B}" name="Albergate" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C8153DE0-31FD-46CD-8975-66FBA815A498}" name="Tableau110131618" displayName="Tableau110131618" ref="AF5:AI11" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C8153DE0-31FD-46CD-8975-66FBA815A498}" name="Tableau110131618" displayName="Tableau110131618" ref="AF5:AI11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="AF5:AI11" xr:uid="{C8153DE0-31FD-46CD-8975-66FBA815A498}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FD01F8E1-0625-41AD-9ACF-2A14448890FA}" name="with_code + mmr" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{81C59ABE-3BEC-4917-93D3-F945D5B70D17}" name="eTour" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3A7282F5-F1AF-4271-A278-6DE3EAC0924E}" name="iTrust" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{84E25784-E643-4BB8-ACC1-ABCAE60A3A50}" name="Albergate" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FD01F8E1-0625-41AD-9ACF-2A14448890FA}" name="with_code + reranker" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{81C59ABE-3BEC-4917-93D3-F945D5B70D17}" name="eTour" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3A7282F5-F1AF-4271-A278-6DE3EAC0924E}" name="iTrust" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{84E25784-E643-4BB8-ACC1-ABCAE60A3A50}" name="Albergate" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{56F490BC-C4A0-450D-AB17-7BD95FEC1A6F}" name="Tableau691719" displayName="Tableau691719" ref="AF13:AI19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{56F490BC-C4A0-450D-AB17-7BD95FEC1A6F}" name="Tableau691719" displayName="Tableau691719" ref="AF13:AI19" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="AF13:AI19" xr:uid="{56F490BC-C4A0-450D-AB17-7BD95FEC1A6F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{76D84DAF-D972-4575-9708-A3FBE903005B}" name="with_one_comment + reranker" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A297F5E8-62D9-4686-83BA-5A76A4F7780C}" name="eTour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4752DE03-8DA4-42C5-81E1-6F4CDC701A92}" name="iTrust" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AE361B5C-ABB4-489E-8B47-3F8D98CD4C80}" name="Albergate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{76D84DAF-D972-4575-9708-A3FBE903005B}" name="with_one_comment + reranker" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A297F5E8-62D9-4686-83BA-5A76A4F7780C}" name="eTour" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4752DE03-8DA4-42C5-81E1-6F4CDC701A92}" name="iTrust" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{AE361B5C-ABB4-489E-8B47-3F8D98CD4C80}" name="Albergate" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0364C375-AD7B-4AC1-99AB-AB7FFFA60437}" name="Tableau19" displayName="Tableau19" ref="G13:P16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="G13:P16" xr:uid="{0364C375-AD7B-4AC1-99AB-AB7FFFA60437}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FD45C5E3-01CE-4CC5-BBAB-7CABB565840C}" name="Colonne1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{60E9CC25-6AA2-4E24-ABD0-67DFCF276951}" name="with_code+reranker" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{B9343429-6E4C-4457-9F88-91D7F32CEF8C}" name="with_code+bm25" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F8740606-D99A-4FFC-9149-3A63EC9EA4E8}" name="with_code+mmr" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{9B2D36B2-B943-4CCB-8D57-984BBD38A436}" name="with_code_comment+reranker" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C7CB2DBF-8975-4A81-BCD2-274C2C0C6CBF}" name="with_code_comment+bm25" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B74CCC70-0774-4EA1-8F74-85182BC9CAB5}" name="with_code_comment+mmr" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{BF905F68-C5F3-4335-8489-97E589D6230B}" name="with_one_comment+reranker" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F12CF779-C3D1-471F-BB11-AE0378F7F830}" name="with_one_comment+bm25" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9BF7CA38-6BB4-4345-A342-4E180958A77B}" name="with_one_comment+mmr" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1793,91 +3347,91 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}" name="Tableau3" displayName="Tableau3" ref="G13:J19" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154" tableBorderDxfId="152" totalsRowBorderDxfId="151">
   <autoFilter ref="G13:J19" xr:uid="{D98C44C1-0B5B-4289-8A49-4667B3FBDF17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{E7FCE47E-2275-45CB-B319-147352933C39}" name="with_code_comment" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{51DDBC57-69F3-48F7-8830-FCEF1AAE1500}" name="eTour" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{85572FF5-FF13-4FEE-A08D-2F467C221025}" name="iTrust" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{7EB03A88-C7CE-4355-99DE-2EFC52B37BC1}" name="Albergate" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}" name="Tableau6" displayName="Tableau6" ref="G22:J28" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145" tableBorderDxfId="143" totalsRowBorderDxfId="142">
   <autoFilter ref="G22:J28" xr:uid="{118F3364-9537-4BDF-8BE3-CD5C6EE96565}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{035DB747-2B1B-4729-AE9E-C4AD735DB79D}" name="with_one_comment" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{A1210D52-A3E2-482D-9209-00AAD95FA4F9}" name="eTour" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{51FE4424-30A5-4026-9E4A-47319F9C40E4}" name="iTrust" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{FD2F01BF-3C4C-46E4-B10F-63ABA631F3C2}" name="Albergate" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67A10623-EB36-4284-843F-216B3A3DFE9E}" name="Tableau4" displayName="Tableau4" ref="G30:J36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67A10623-EB36-4284-843F-216B3A3DFE9E}" name="Tableau4" displayName="Tableau4" ref="G30:J36" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134" totalsRowBorderDxfId="133">
   <autoFilter ref="G30:J36" xr:uid="{67A10623-EB36-4284-843F-216B3A3DFE9E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7B639B08-BBD7-418A-971C-7718A3003F1A}" name="with_all_generated_comment"/>
-    <tableColumn id="2" xr3:uid="{3F5A7B4F-9A53-4AAF-9D47-265C27497AE4}" name="eTour"/>
-    <tableColumn id="3" xr3:uid="{078F3145-3F9A-4E02-B5ED-6077887BB2E1}" name="iTrust"/>
-    <tableColumn id="4" xr3:uid="{5C6FCB9A-FC93-48F1-9108-E619AEEFA59D}" name="Albergate"/>
+    <tableColumn id="1" xr3:uid="{7B639B08-BBD7-418A-971C-7718A3003F1A}" name="with_all_generated_comment" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{3F5A7B4F-9A53-4AAF-9D47-265C27497AE4}" name="eTour" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{078F3145-3F9A-4E02-B5ED-6077887BB2E1}" name="iTrust" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{5C6FCB9A-FC93-48F1-9108-E619AEEFA59D}" name="Albergate" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}" name="Tableau16" displayName="Tableau16" ref="G5:J11" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125" totalsRowBorderDxfId="124">
   <autoFilter ref="G5:J11" xr:uid="{B989D2D1-4366-4ACA-B3D1-B92246E229CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{CA355166-9E1D-464C-99F1-32CAE6AA200E}" name="with_code" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{1E96AA51-76B7-40ED-8A40-4F89E5FAAFE7}" name="eTour" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{5C458189-4CCE-46F0-9034-77472898B9B0}" name="iTrust" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{1ACD50C8-ADE1-4802-B9E9-3DE57C91095D}" name="Albergate" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}" name="Tableau38" displayName="Tableau38" ref="L13:O19" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}" name="Tableau38" displayName="Tableau38" ref="L13:O19" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <autoFilter ref="L13:O19" xr:uid="{1B57764F-1E4A-40F1-9905-4A68501C5F0F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{39F59118-780F-40AF-B3DE-8DC78FD90908}" name="with_code_comment + reranker" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{AB112250-8B2B-46B4-8EB7-3788774E9D67}" name="eTour" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{6337943C-5AA0-4A68-8AB8-FD50CACF0762}" name="iTrust" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{62551087-432B-4FDA-B3D0-E0BBFFB2E508}" name="Albergate" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{39F59118-780F-40AF-B3DE-8DC78FD90908}" name="with_code_comment + reranker" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{AB112250-8B2B-46B4-8EB7-3788774E9D67}" name="eTour" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{6337943C-5AA0-4A68-8AB8-FD50CACF0762}" name="iTrust" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{62551087-432B-4FDA-B3D0-E0BBFFB2E508}" name="Albergate" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}" name="Tableau69" displayName="Tableau69" ref="L22:O28" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}" name="Tableau69" displayName="Tableau69" ref="L22:O28" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="L22:O28" xr:uid="{D54C564C-0E74-4BDD-917B-20A8327BFBB3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{409D4A8B-FFDC-4831-BCE0-490551796F9F}" name="with_one_comment + reranker" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D394C109-4206-488C-B70E-333F018DE558}" name="eTour" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{ADE0C645-C922-4720-9346-9E5D6AD79A43}" name="iTrust" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{5D680130-5FCA-456E-8EAA-353A0846B77A}" name="Albergate" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{409D4A8B-FFDC-4831-BCE0-490551796F9F}" name="with_one_comment + reranker" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{D394C109-4206-488C-B70E-333F018DE558}" name="eTour" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{ADE0C645-C922-4720-9346-9E5D6AD79A43}" name="iTrust" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{5D680130-5FCA-456E-8EAA-353A0846B77A}" name="Albergate" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}" name="Tableau110" displayName="Tableau110" ref="Q5:T11" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}" name="Tableau110" displayName="Tableau110" ref="Q5:T11" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="Q5:T11" xr:uid="{8D15E008-089E-4168-BBFB-9D54A2B2D7D3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8522F80B-BBCE-41B7-8831-DA4C551539A9}" name="with_code + bm25" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{7995C1BD-3544-4BC4-9ED4-22AF5B1A9107}" name="eTour" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{E5DE4606-951B-473E-AECC-D6D054360C4D}" name="iTrust" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{2F902C68-3C40-439E-B52E-A785665EDC43}" name="Albergate" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{8522F80B-BBCE-41B7-8831-DA4C551539A9}" name="with_code + bm25" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{7995C1BD-3544-4BC4-9ED4-22AF5B1A9107}" name="eTour" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{E5DE4606-951B-473E-AECC-D6D054360C4D}" name="iTrust" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{2F902C68-3C40-439E-B52E-A785665EDC43}" name="Albergate" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2146,31 +3700,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AI36"/>
+  <dimension ref="B3:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" customWidth="1"/>
-    <col min="37" max="37" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>61</v>
       </c>
@@ -2190,7 +3747,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2203,81 +3760,85 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2285,1452 +3846,1979 @@
         <v>308</v>
       </c>
       <c r="D6">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E6">
         <v>54</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>106</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>131</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="8">
         <v>37</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="6">
         <v>143</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="6">
         <v>163</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="8">
         <v>47</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="6">
         <v>123</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="6">
         <v>169</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="8">
         <v>43</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="6">
         <v>71</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="8">
         <v>31</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="6">
         <v>111</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="6">
         <v>154</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="8">
         <v>34</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="6">
         <v>93</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="6">
         <v>118</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G7" s="2" t="s">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>228</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <v>440</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="8">
         <v>97</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="6">
         <v>284</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="6">
         <v>474</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="8">
         <v>134</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="6">
         <v>270</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="6">
         <v>441</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="8">
         <v>159</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="6">
         <v>212</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="8">
         <v>70</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="6">
         <v>259</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="6">
         <v>469</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="8">
         <v>81</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="6">
         <v>200</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="6">
         <v>362</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G8" s="2" t="s">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>308</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>418</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <v>54</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="6">
         <v>308</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="6">
         <v>418</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="8">
         <v>54</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="6">
         <v>308</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="6">
         <v>418</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="8">
         <v>54</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="6">
         <v>308</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="6">
         <v>418</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="8">
         <v>54</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="6">
         <v>308</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="6">
         <v>418</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="8">
         <v>54</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="6">
         <v>308</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="6">
         <v>418</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G9" s="2" t="s">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="U9" s="2"/>
+      <c r="V9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AB9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AH9" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G10" s="2" t="s">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="U10" s="2"/>
+      <c r="V10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G11" s="3" t="s">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="U11" s="2"/>
+      <c r="V11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AD11" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AH11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AI11" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:35" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="s">
+    <row r="12" spans="2:35" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+    </row>
+    <row r="13" spans="2:35" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="18" t="s">
         <v>2</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="U13" s="2"/>
+      <c r="V13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AG13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AH13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="AI13" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G14" s="2" t="s">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
+        <v>31</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="6">
+        <v>105</v>
+      </c>
+      <c r="N14" s="6">
+        <v>125</v>
+      </c>
+      <c r="O14" s="8">
+        <v>27</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="6">
+        <v>88</v>
+      </c>
+      <c r="S14" s="6">
+        <v>122</v>
+      </c>
+      <c r="T14" s="8">
+        <v>31</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="6">
+        <v>87</v>
+      </c>
+      <c r="X14" s="6">
+        <v>118</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>132</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>113</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>38</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>103</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>97</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <v>71</v>
+      </c>
+      <c r="I15" s="6">
+        <v>131</v>
+      </c>
+      <c r="J15" s="8">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="6">
+        <v>226</v>
+      </c>
+      <c r="N15" s="6">
+        <v>426</v>
+      </c>
+      <c r="O15" s="8">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="6">
+        <v>193</v>
+      </c>
+      <c r="S15" s="6">
+        <v>260</v>
+      </c>
+      <c r="T15" s="8">
+        <v>59</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="6">
+        <v>182</v>
+      </c>
+      <c r="X15" s="6">
+        <v>332</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>79</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>239</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>449</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>82</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>203</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>328</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6">
+        <v>308</v>
+      </c>
+      <c r="I16" s="6">
+        <v>418</v>
+      </c>
+      <c r="J16" s="8">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="6">
+        <v>308</v>
+      </c>
+      <c r="N16" s="6">
+        <v>418</v>
+      </c>
+      <c r="O16" s="8">
+        <v>54</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="6">
+        <v>308</v>
+      </c>
+      <c r="S16" s="6">
+        <v>418</v>
+      </c>
+      <c r="T16" s="8">
+        <v>54</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="6">
+        <v>308</v>
+      </c>
+      <c r="X16" s="6">
+        <v>418</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>308</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>418</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>54</v>
+      </c>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>308</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>418</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC19" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+    </row>
+    <row r="21" spans="7:35" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+    </row>
+    <row r="22" spans="7:35" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+    </row>
+    <row r="23" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6">
         <v>162</v>
       </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="I23" s="6">
+        <v>160</v>
+      </c>
+      <c r="J23" s="8">
+        <v>39</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M23" s="6">
+        <v>102</v>
+      </c>
+      <c r="N23" s="6">
+        <v>138</v>
+      </c>
+      <c r="O23" s="8">
+        <v>35</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="6">
+        <v>98</v>
+      </c>
+      <c r="S23" s="6">
+        <v>170</v>
+      </c>
+      <c r="T23" s="8">
+        <v>33</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="6">
+        <v>130</v>
+      </c>
+      <c r="X23" s="6">
+        <v>171</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>35</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+    </row>
+    <row r="24" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6">
+        <v>325</v>
+      </c>
+      <c r="I24" s="6">
+        <v>509</v>
+      </c>
+      <c r="J24" s="8">
+        <v>125</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="6">
+        <v>211</v>
+      </c>
+      <c r="N24" s="6">
+        <v>509</v>
+      </c>
+      <c r="O24" s="8">
+        <v>116</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="6">
+        <v>207</v>
+      </c>
+      <c r="S24" s="6">
+        <v>497</v>
+      </c>
+      <c r="T24" s="8">
+        <v>97</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="6">
+        <v>307</v>
+      </c>
+      <c r="X24" s="6">
+        <v>609</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>116</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+    </row>
+    <row r="25" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6">
+        <v>308</v>
+      </c>
+      <c r="I25" s="6">
+        <v>418</v>
+      </c>
+      <c r="J25" s="8">
+        <v>54</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="6">
+        <v>308</v>
+      </c>
+      <c r="N25" s="6">
+        <v>418</v>
+      </c>
+      <c r="O25" s="8">
+        <v>54</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="6">
+        <v>308</v>
+      </c>
+      <c r="S25" s="6">
+        <v>418</v>
+      </c>
+      <c r="T25" s="8">
+        <v>54</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="6">
+        <v>308</v>
+      </c>
+      <c r="X25" s="6">
+        <v>418</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>54</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+    </row>
+    <row r="26" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="2">
-        <v>125</v>
-      </c>
-      <c r="O14" s="2">
-        <v>27</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
+      <c r="T26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+    </row>
+    <row r="27" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="V27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+    </row>
+    <row r="29" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+    </row>
+    <row r="30" spans="7:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+    </row>
+    <row r="31" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="2">
-        <v>88</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="H31" s="5">
+        <v>30</v>
+      </c>
+      <c r="I31" s="5">
+        <v>136</v>
+      </c>
+      <c r="J31" s="9">
+        <v>32</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+    </row>
+    <row r="32" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="5">
+        <v>68</v>
+      </c>
+      <c r="I32" s="5">
+        <v>501</v>
+      </c>
+      <c r="J32" s="9">
         <v>122</v>
       </c>
-      <c r="T14" s="2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+    </row>
+    <row r="33" spans="7:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="5">
+        <v>308</v>
+      </c>
+      <c r="I33" s="5">
+        <v>418</v>
+      </c>
+      <c r="J33" s="9">
+        <v>54</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+    </row>
+    <row r="34" spans="7:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z34" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+    </row>
+    <row r="35" spans="7:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="G35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z35" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA35" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+    </row>
+    <row r="36" spans="7:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="G36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z36" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA36" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="2">
-        <v>87</v>
-      </c>
-      <c r="X14" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>113</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>103</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>97</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>29</v>
-      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>325</v>
-      </c>
-      <c r="I15" s="2">
-        <v>131</v>
-      </c>
-      <c r="J15" s="2">
+    <row r="37" spans="7:35" ht="60" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z37" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA37" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2">
-        <v>226</v>
-      </c>
-      <c r="N15" s="2">
-        <v>426</v>
-      </c>
-      <c r="O15" s="2">
-        <v>100</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="2">
-        <v>193</v>
-      </c>
-      <c r="S15" s="2">
-        <v>260</v>
-      </c>
-      <c r="T15" s="2">
-        <v>59</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="2">
-        <v>182</v>
-      </c>
-      <c r="X15" s="2">
-        <v>332</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>239</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>449</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>203</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>328</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>87</v>
-      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="2">
-        <v>308</v>
-      </c>
-      <c r="I16" s="2">
-        <v>418</v>
-      </c>
-      <c r="J16" s="2">
-        <v>54</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <v>308</v>
-      </c>
-      <c r="N16" s="2">
-        <v>418</v>
-      </c>
-      <c r="O16" s="2">
-        <v>54</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="2">
-        <v>308</v>
-      </c>
-      <c r="S16" s="2">
-        <v>418</v>
-      </c>
-      <c r="T16" s="2">
-        <v>54</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="2">
-        <v>308</v>
-      </c>
-      <c r="X16" s="2">
-        <v>418</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>308</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>418</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>54</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>308</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>418</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="7:35" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2">
-        <v>31</v>
-      </c>
-      <c r="I23" s="2">
-        <v>160</v>
-      </c>
-      <c r="J23" s="2">
-        <v>39</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2">
-        <v>138</v>
-      </c>
-      <c r="O23" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="2">
-        <v>98</v>
-      </c>
-      <c r="S23" s="2">
-        <v>170</v>
-      </c>
-      <c r="T23" s="2">
-        <v>33</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" s="2">
-        <v>130</v>
-      </c>
-      <c r="X23" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2">
-        <v>71</v>
-      </c>
-      <c r="I24" s="2">
-        <v>509</v>
-      </c>
-      <c r="J24" s="2">
-        <v>125</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="2">
-        <v>211</v>
-      </c>
-      <c r="N24" s="2">
-        <v>509</v>
-      </c>
-      <c r="O24" s="2">
-        <v>116</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="2">
-        <v>207</v>
-      </c>
-      <c r="S24" s="2">
-        <v>497</v>
-      </c>
-      <c r="T24" s="2">
-        <v>97</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W24" s="2">
-        <v>307</v>
-      </c>
-      <c r="X24" s="2">
-        <v>609</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2">
-        <v>308</v>
-      </c>
-      <c r="I25" s="2">
-        <v>418</v>
-      </c>
-      <c r="J25" s="2">
-        <v>54</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="2">
-        <v>308</v>
-      </c>
-      <c r="N25" s="2">
-        <v>418</v>
-      </c>
-      <c r="O25" s="2">
-        <v>54</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="2">
-        <v>308</v>
-      </c>
-      <c r="S25" s="2">
-        <v>418</v>
-      </c>
-      <c r="T25" s="2">
-        <v>54</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W25" s="2">
-        <v>308</v>
-      </c>
-      <c r="X25" s="2">
-        <v>418</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-      <c r="I31">
-        <v>136</v>
-      </c>
-      <c r="J31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="7:35" x14ac:dyDescent="0.3">
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32">
-        <v>68</v>
-      </c>
-      <c r="I32">
-        <v>501</v>
-      </c>
-      <c r="J32">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33">
-        <v>308</v>
-      </c>
-      <c r="I33">
-        <v>418</v>
-      </c>
-      <c r="J33">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>50</v>
-      </c>
+    <row r="38" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="18">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3748,6 +5836,164 @@
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFCB325-DADA-44F1-B04E-5D6D2A4EFF5B}">
+  <dimension ref="G13:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>